--- a/CucumberBaseFramework/target/test-classes/TestData/ePortalTestData.xlsx
+++ b/CucumberBaseFramework/target/test-classes/TestData/ePortalTestData.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\CucumberBaseFramework\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23775" windowHeight="7275" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MasterSheet" sheetId="3" r:id="rId1"/>
     <sheet name="ePortal_TestData" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:W23"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -382,7 +378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -421,11 +417,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="4" width="12.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
